--- a/src/test/resources/TestData/testData_uat.xlsx
+++ b/src/test/resources/TestData/testData_uat.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E08020F-5382-4CA0-9AAB-D3B63F03D01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{2E08020F-5382-4CA0-9AAB-D3B63F03D01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2CC5F66-E821-478D-895D-C9A7AC0FCBF8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addresses" sheetId="1" r:id="rId1"/>
@@ -15,22 +15,315 @@
     <sheet name="products" sheetId="5" r:id="rId5"/>
     <sheet name="search" sheetId="6" r:id="rId6"/>
     <sheet name="users" sheetId="7" r:id="rId7"/>
+    <sheet name="HomePage" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>USADDRESS1</t>
+  </si>
+  <si>
+    <t>143 cropwell drive</t>
+  </si>
+  <si>
+    <t>Maple Shade</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>08052</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>WOMEN</t>
+  </si>
+  <si>
+    <t>NEW &amp; NOW</t>
+  </si>
+  <si>
+    <t>EXPRESS ESSENTIALS</t>
+  </si>
+  <si>
+    <t>CLOTHING</t>
+  </si>
+  <si>
+    <t>ACCESSORIES &amp; SHOES</t>
+  </si>
+  <si>
+    <t>STYLE</t>
+  </si>
+  <si>
+    <t>MEN</t>
+  </si>
+  <si>
+    <t>SHIRT SHOP</t>
+  </si>
+  <si>
+    <t>QUANTITY2</t>
+  </si>
+  <si>
+    <t>PROMOCODE1</t>
+  </si>
+  <si>
+    <t>INVALID_PROMO</t>
+  </si>
+  <si>
+    <t>FourDigitCoupon_FlatPrice</t>
+  </si>
+  <si>
+    <t>CRMCoupon_PercentagePrice</t>
+  </si>
+  <si>
+    <t>CC1</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>CATEGORY1</t>
+  </si>
+  <si>
+    <t>Dresses</t>
+  </si>
+  <si>
+    <t>CATEGORY2</t>
+  </si>
+  <si>
+    <t>Suits</t>
+  </si>
+  <si>
+    <t>CATEGORY3</t>
+  </si>
+  <si>
+    <t>Joggers</t>
+  </si>
+  <si>
+    <t>CATEGORY4</t>
+  </si>
+  <si>
+    <t>Hats</t>
+  </si>
+  <si>
+    <t>CATEGORY5</t>
+  </si>
+  <si>
+    <t>SALE</t>
+  </si>
+  <si>
+    <t>Final Sale</t>
+  </si>
+  <si>
+    <t>NAME_SEARCH1</t>
+  </si>
+  <si>
+    <t>suits</t>
+  </si>
+  <si>
+    <t>NAME_SEARCH2</t>
+  </si>
+  <si>
+    <t>cropped jeans</t>
+  </si>
+  <si>
+    <t>NAME_SEARCH3</t>
+  </si>
+  <si>
+    <t>bow ties</t>
+  </si>
+  <si>
+    <t>NAME_SEARCH4</t>
+  </si>
+  <si>
+    <t>fragrance</t>
+  </si>
+  <si>
+    <t>NAME_SEARCH5</t>
+  </si>
+  <si>
+    <t>pants men</t>
+  </si>
+  <si>
+    <t>SKU_SEARCH1</t>
+  </si>
+  <si>
+    <t>SKU_SEARCH2</t>
+  </si>
+  <si>
+    <t>SKU_SEARCH3</t>
+  </si>
+  <si>
+    <t>SKU_SEARCH4</t>
+  </si>
+  <si>
+    <t>SKU_SEARCH5</t>
+  </si>
+  <si>
+    <t>NE_SKU_SEARCH1</t>
+  </si>
+  <si>
+    <t>MODEL_SEARCH1</t>
+  </si>
+  <si>
+    <t>polo</t>
+  </si>
+  <si>
+    <t>MODEL_SEARCH2</t>
+  </si>
+  <si>
+    <t>MODEL_SEARCH3</t>
+  </si>
+  <si>
+    <t>MODEL_SEARCH4</t>
+  </si>
+  <si>
+    <t>MODEL_SEARCH5</t>
+  </si>
+  <si>
+    <t>PRODUCT_NAME2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marled Performance Polo</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>BRAND_NAME1</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>BRAND_NAME2</t>
+  </si>
+  <si>
+    <t>flying monkey</t>
+  </si>
+  <si>
+    <t>PRODUCT_NAME1</t>
+  </si>
+  <si>
+    <t>Ripped Hem Skinny Jeans</t>
+  </si>
+  <si>
+    <t>Marled Performance Polo</t>
+  </si>
+  <si>
+    <t>CATEGORY_NAME1</t>
+  </si>
+  <si>
+    <t>CATEGORY_NAME2</t>
+  </si>
+  <si>
+    <t>Tops</t>
+  </si>
+  <si>
+    <t>CATEGORY_NAME3</t>
+  </si>
+  <si>
+    <t>SKU_ID1</t>
+  </si>
+  <si>
+    <t>SKU_ID2</t>
+  </si>
+  <si>
+    <t>SKU_ID3</t>
+  </si>
+  <si>
+    <t>SKU_ID4</t>
+  </si>
+  <si>
+    <t>SKU_ID5</t>
+  </si>
+  <si>
+    <t>SKU_ID6</t>
+  </si>
+  <si>
+    <t>SKU_PROMOTION1</t>
+  </si>
+  <si>
+    <t>05047099</t>
+  </si>
+  <si>
+    <t>SKU_PROMOTION2</t>
+  </si>
+  <si>
+    <t>EXPRESSSKU_ID1</t>
+  </si>
+  <si>
+    <t>EXPRESSSKU_ID2</t>
+  </si>
+  <si>
+    <t>800XXXXX</t>
+  </si>
+  <si>
+    <t>INVALID_PATTERN1</t>
+  </si>
+  <si>
+    <t>invalidsdfksdfkljrewrwerewrdsfsdf</t>
+  </si>
+  <si>
+    <t>INVALID_PATTERN2</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>dfdsfwrwerewr</t>
+  </si>
+  <si>
+    <t>MISSPELLED_PATTERN1</t>
+  </si>
+  <si>
+    <t>flyign monkey</t>
+  </si>
+  <si>
     <t>EmailID</t>
   </si>
   <si>
@@ -40,295 +333,46 @@
     <t>VIP1</t>
   </si>
   <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>BRAND_NAME1</t>
-  </si>
-  <si>
-    <t>express</t>
-  </si>
-  <si>
-    <t>PRODUCT_NAME1</t>
-  </si>
-  <si>
-    <t>Ripped Hem Skinny Jeans</t>
-  </si>
-  <si>
-    <t>Marled Performance Polo</t>
-  </si>
-  <si>
-    <t>PRODUCT_NAME2</t>
-  </si>
-  <si>
-    <t>CATEGORY_NAME1</t>
-  </si>
-  <si>
-    <t>MEN</t>
-  </si>
-  <si>
-    <t>Joggers</t>
-  </si>
-  <si>
-    <t>SKU_ID1</t>
-  </si>
-  <si>
-    <t>SKU_ID2</t>
-  </si>
-  <si>
-    <t>SKU_PROMOTION1</t>
-  </si>
-  <si>
-    <t>EXPRESSSKU_ID1</t>
-  </si>
-  <si>
-    <t>INVALID_PATTERN1</t>
-  </si>
-  <si>
-    <t>invalidsdfksdfkljrewrwerewrdsfsdf</t>
-  </si>
-  <si>
-    <t>INVALID_PATTERN2</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>dfdsfwrwerewr</t>
-  </si>
-  <si>
-    <t>MISSPELLED_PATTERN1</t>
-  </si>
-  <si>
-    <t>flyign monkey</t>
-  </si>
-  <si>
-    <t>Format</t>
-  </si>
-  <si>
-    <t>Address1</t>
-  </si>
-  <si>
-    <t>Address2</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>USADDRESS1</t>
-  </si>
-  <si>
-    <t>WOMEN</t>
-  </si>
-  <si>
-    <t>NEW &amp; NOW</t>
-  </si>
-  <si>
-    <t>EXPRESS ESSENTIALS</t>
-  </si>
-  <si>
-    <t>CLOTHING</t>
-  </si>
-  <si>
-    <t>ACCESSORIES &amp; SHOES</t>
-  </si>
-  <si>
-    <t>STYLE</t>
-  </si>
-  <si>
-    <t>SHIRT SHOP</t>
-  </si>
-  <si>
-    <t>QUANTITY2</t>
-  </si>
-  <si>
-    <t>PROMOCODE1</t>
-  </si>
-  <si>
-    <t>INVALID_PROMO</t>
-  </si>
-  <si>
-    <t>FourDigitCoupon_FlatPrice</t>
-  </si>
-  <si>
-    <t>CRMCoupon_PercentagePrice</t>
-  </si>
-  <si>
-    <t>Dresses</t>
-  </si>
-  <si>
-    <t>Suits</t>
-  </si>
-  <si>
-    <t>Hats</t>
-  </si>
-  <si>
-    <t>Final Sale</t>
-  </si>
-  <si>
-    <t>CATEGORY1</t>
-  </si>
-  <si>
-    <t>CATEGORY2</t>
-  </si>
-  <si>
-    <t>CATEGORY3</t>
-  </si>
-  <si>
-    <t>CATEGORY4</t>
-  </si>
-  <si>
-    <t>CATEGORY5</t>
-  </si>
-  <si>
-    <t>SALE</t>
-  </si>
-  <si>
-    <t>NAME_SEARCH1</t>
-  </si>
-  <si>
-    <t>suits</t>
-  </si>
-  <si>
-    <t>NAME_SEARCH2</t>
-  </si>
-  <si>
-    <t>cropped jeans</t>
-  </si>
-  <si>
-    <t>NAME_SEARCH3</t>
-  </si>
-  <si>
-    <t>bow ties</t>
-  </si>
-  <si>
-    <t>NAME_SEARCH4</t>
-  </si>
-  <si>
-    <t>fragrance</t>
-  </si>
-  <si>
-    <t>NAME_SEARCH5</t>
-  </si>
-  <si>
-    <t>pants men</t>
-  </si>
-  <si>
-    <t>SKU_SEARCH1</t>
-  </si>
-  <si>
-    <t>SKU_SEARCH2</t>
-  </si>
-  <si>
-    <t>SKU_SEARCH3</t>
-  </si>
-  <si>
-    <t>SKU_SEARCH4</t>
-  </si>
-  <si>
-    <t>SKU_SEARCH5</t>
-  </si>
-  <si>
-    <t>MODEL_SEARCH1</t>
-  </si>
-  <si>
-    <t>polo</t>
-  </si>
-  <si>
-    <t>MODEL_SEARCH2</t>
-  </si>
-  <si>
-    <t>MODEL_SEARCH3</t>
-  </si>
-  <si>
-    <t>MODEL_SEARCH4</t>
-  </si>
-  <si>
-    <t>MODEL_SEARCH5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marled Performance Polo</t>
-  </si>
-  <si>
-    <t>NE_SKU_SEARCH1</t>
-  </si>
-  <si>
-    <t>BRAND_NAME2</t>
-  </si>
-  <si>
-    <t>flying monkey</t>
-  </si>
-  <si>
-    <t>CATEGORY_NAME2</t>
-  </si>
-  <si>
-    <t>Tops</t>
-  </si>
-  <si>
-    <t>CATEGORY_NAME3</t>
-  </si>
-  <si>
-    <t>SKU_ID3</t>
-  </si>
-  <si>
-    <t>SKU_ID4</t>
-  </si>
-  <si>
-    <t>SKU_ID5</t>
-  </si>
-  <si>
-    <t>SKU_ID6</t>
-  </si>
-  <si>
-    <t>SKU_PROMOTION2</t>
-  </si>
-  <si>
-    <t>05047099</t>
-  </si>
-  <si>
-    <t>EXPRESSSKU_ID2</t>
-  </si>
-  <si>
-    <t>800XXXXX</t>
+    <t>testvipuser01@yopmail.com</t>
   </si>
   <si>
     <t>VIP2</t>
   </si>
   <si>
-    <t>testvipuser01@yopmail.com</t>
-  </si>
-  <si>
-    <t>143 cropwell drive</t>
-  </si>
-  <si>
-    <t>Maple Shade</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>Zip Code</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>CC1</t>
-  </si>
-  <si>
-    <t>08052</t>
-  </si>
-  <si>
-    <t>4111111111111111</t>
-  </si>
-  <si>
     <t>testcucumbervip@gmail.com</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Pale Grey</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Your shopping cart is empty</t>
   </si>
 </sst>
 </file>
@@ -338,7 +382,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\/yy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,52 +714,52 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -731,51 +775,51 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -794,30 +838,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>1992</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>1990</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1234</v>
@@ -826,9 +870,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>1234556788</v>
@@ -850,18 +894,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -873,81 +917,81 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="2"/>
     </row>
   </sheetData>
@@ -964,200 +1008,200 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>63</v>
       </c>
       <c r="B11">
         <v>80000190</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>80003616</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>80003681</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>1765524</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>8635263</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>80008035</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1173,189 +1217,189 @@
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
       </c>
       <c r="B9">
         <v>7924683</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>5047099</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11">
         <v>80003852</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <v>80003866</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13">
         <v>80000190</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <v>2775512</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16">
         <v>8802690</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B17">
         <v>80003833</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
         <v>87</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1367,41 +1411,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C975651C-F7D6-4FA2-B236-63C6067C0DC2}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>100</v>
@@ -1418,4 +1462,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC417496-48CC-4487-A0C3-A9ED5E60558A}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2">
+        <v>40135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/testData_uat.xlsx
+++ b/src/test/resources/TestData/testData_uat.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25510"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{2E08020F-5382-4CA0-9AAB-D3B63F03D01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2CC5F66-E821-478D-895D-C9A7AC0FCBF8}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19890" windowHeight="7545" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="addresses" sheetId="1" r:id="rId1"/>
@@ -17,27 +16,12 @@
     <sheet name="users" sheetId="7" r:id="rId7"/>
     <sheet name="HomePage" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="128">
   <si>
     <t>Format</t>
   </si>
@@ -126,7 +110,19 @@
     <t>CATEGORY1</t>
   </si>
   <si>
-    <t>Dresses</t>
+    <t>WOMEN ASICS</t>
+  </si>
+  <si>
+    <t>VARIANTS1</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aria-label</t>
+  </si>
+  <si>
+    <t>Black/White</t>
   </si>
   <si>
     <t>CATEGORY2</t>
@@ -189,10 +185,46 @@
     <t>SKU_SEARCH1</t>
   </si>
   <si>
+    <t>VARIANTS2</t>
+  </si>
+  <si>
+    <t>Dark Navy</t>
+  </si>
+  <si>
+    <t>Women's KORSA Challenge 5" Short</t>
+  </si>
+  <si>
+    <t>STORE1</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Tempe</t>
+  </si>
+  <si>
     <t>SKU_SEARCH2</t>
   </si>
   <si>
+    <t>VARIANTS3</t>
+  </si>
+  <si>
+    <t>Medium (Normal)</t>
+  </si>
+  <si>
+    <t>Men's adidas Solar Boost 3</t>
+  </si>
+  <si>
     <t>SKU_SEARCH3</t>
+  </si>
+  <si>
+    <t>VARIANTS4</t>
+  </si>
+  <si>
+    <t>Heather Black</t>
+  </si>
+  <si>
+    <t>Men's KORSA Accelerate Short Sleeve Tee</t>
   </si>
   <si>
     <t>SKU_SEARCH4</t>
@@ -378,16 +410,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm\/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="mm\/yy"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,19 +431,341 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -415,31 +773,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -488,7 +1128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -523,7 +1163,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -697,26 +1337,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -764,18 +1399,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC349B7-9C8F-4511-8E65-06D23E364539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -817,7 +1454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -827,23 +1464,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05406E61-9B4E-4AA8-8715-5AA9838A0FB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -851,7 +1490,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -883,21 +1522,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDBD0A5-63F1-4B73-93CE-0B74D8A471E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="29.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -917,51 +1558,51 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="2:2">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="2:2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="2:2">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="2:2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="2:2">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="2:2">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="2:2">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="2:4">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="2:2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="2:2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="2:2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="2:2">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="2:2">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="2:2">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="2:2">
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2">
@@ -996,448 +1637,541 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001623B1-EE0A-4B71-85CD-D155DB22D8E5}">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="26.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="5" max="5" width="35.8571428571429" customWidth="1"/>
+    <col min="6" max="7" width="2.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
         <v>31</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11">
-        <v>80000190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B12">
-        <v>80003616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>34519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13">
-        <v>80003681</v>
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14">
-        <v>1765524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B15">
-        <v>8635263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>38190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16">
-        <v>80008035</v>
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <v>1765524</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+      <c r="B20">
+        <v>8635263</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="B21">
+        <v>80008035</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94EE99E-A428-408A-BF51-F1D1AE204781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B9">
         <v>7924683</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>5047099</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>80003852</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>80003866</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B13">
         <v>80000190</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>2775512</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B16">
         <v>8802690</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B17">
         <v>80003833</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C975651C-F7D6-4FA2-B236-63C6067C0DC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="33.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C2">
         <v>123456</v>
@@ -1445,10 +2179,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C3">
         <v>123456</v>
@@ -1456,62 +2190,64 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{99491E6D-991C-4483-840E-132C8053FC20}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{14C41353-04F0-4296-96C6-C9068A252B52}"/>
+    <hyperlink ref="B2" r:id="rId1" display="testvipuser01@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="testcucumbervip@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC417496-48CC-4487-A0C3-A9ED5E60558A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>40135</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1520,10 +2256,11 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>